--- a/backend/excel_to_databases/all_socialposts.xlsx
+++ b/backend/excel_to_databases/all_socialposts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>all_socialposts</t>
   </si>
@@ -55,12 +55,6 @@
     <t>type_of_post</t>
   </si>
   <si>
-    <t>author_name</t>
-  </si>
-  <si>
-    <t>author_image</t>
-  </si>
-  <si>
     <t>post_text</t>
   </si>
   <si>
@@ -115,48 +109,45 @@
     <t>9</t>
   </si>
   <si>
+    <t>reference_for_all_socialposts</t>
+  </si>
+  <si>
+    <t>comment_text</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>user_name_in_profile</t>
+  </si>
+  <si>
+    <t>user_avatar_image</t>
+  </si>
+  <si>
+    <t>user_cover_image</t>
+  </si>
+  <si>
+    <t>user_brief_intro</t>
+  </si>
+  <si>
+    <t>user_about_me</t>
+  </si>
+  <si>
+    <t>user_working_zone</t>
+  </si>
+  <si>
+    <t>user_education</t>
+  </si>
+  <si>
+    <t>user_contact_details</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>reference_for_all_socialposts</t>
-  </si>
-  <si>
-    <t>comment_text</t>
-  </si>
-  <si>
-    <t>phone_number</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>user_name_in_profile</t>
-  </si>
-  <si>
-    <t>user_avatar_image</t>
-  </si>
-  <si>
-    <t>user_cover_image</t>
-  </si>
-  <si>
-    <t>user_brief_intro</t>
-  </si>
-  <si>
-    <t>user_about_me</t>
-  </si>
-  <si>
-    <t>user_working_zone</t>
-  </si>
-  <si>
-    <t>user_education</t>
-  </si>
-  <si>
-    <t>user_contact_details</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
@@ -187,7 +178,7 @@
     <t>child4_range</t>
   </si>
   <si>
-    <t>1,12</t>
+    <t>1,10</t>
   </si>
   <si>
     <t>1,3</t>
@@ -240,51 +231,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -315,175 +300,169 @@
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -548,66 +527,66 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
